--- a/datasheet/AVR Instruction Set.xlsx
+++ b/datasheet/AVR Instruction Set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\AMEmu\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1985A25B-2715-4B71-A9AC-69B41F63EB38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{927E6430-667B-451B-9F03-BB0EA166B060}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12330" xr2:uid="{2DEABD0E-B436-4B53-9BB8-9EA74FF4EB8B}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Instructions!$A$1:$W$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Instructions!$A$1:$W$91</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="257">
   <si>
     <t>Mnemonic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,14 +554,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ldd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rd, Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rd, Y+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,10 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>std</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>store direct to data space</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -955,6 +943,106 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p0</t>
+  </si>
+  <si>
+    <t>p0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>ld(d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st(d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,7 +1150,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="16">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1139,95 +1227,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="5" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="270">
-          <stop position="0">
-            <color rgb="FFFFFF99"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.80001220740379042"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="270">
-          <stop position="0">
-            <color rgb="FFFFFF99"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.80001220740379042"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1625,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986E3EE7-1FD7-4EA7-A1B1-F3B52E51A63F}">
-  <dimension ref="A1:X95"/>
+  <dimension ref="A1:X91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1654,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1728,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -1782,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.4">
@@ -1790,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
@@ -1850,7 +1849,7 @@
         <v>99</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.4">
@@ -2062,10 +2061,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -2119,10 +2118,10 @@
         <v>1</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X7" s="3"/>
     </row>
@@ -2131,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -2188,10 +2187,10 @@
         <v>1</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
@@ -2264,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -2321,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
@@ -2448,7 +2447,7 @@
         <v>9</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>89</v>
@@ -2524,7 +2523,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>3</v>
@@ -2581,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
@@ -2776,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
@@ -2784,7 +2783,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>3</v>
@@ -2841,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
@@ -2849,7 +2848,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>3</v>
@@ -2906,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
@@ -2914,7 +2913,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>3</v>
@@ -2971,10 +2970,10 @@
         <v>1</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
@@ -3050,7 +3049,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>27</v>
@@ -3110,7 +3109,7 @@
         <v>30</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
@@ -3118,7 +3117,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>27</v>
@@ -3178,7 +3177,7 @@
         <v>30</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
@@ -3186,7 +3185,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>27</v>
@@ -3246,7 +3245,7 @@
         <v>30</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
@@ -3322,7 +3321,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>27</v>
@@ -3382,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
@@ -3390,10 +3389,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -3402,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -3435,19 +3434,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="U27" s="6">
         <v>2</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
@@ -3455,10 +3454,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -3467,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -3500,19 +3499,19 @@
         <v>1</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="U28" s="6">
         <v>2</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
@@ -3520,10 +3519,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -3532,16 +3531,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
@@ -3565,19 +3564,19 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="U29" s="6">
         <v>2</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
@@ -3585,10 +3584,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -3597,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
@@ -3630,19 +3629,19 @@
         <v>1</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="U30" s="6">
         <v>2</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
@@ -3650,10 +3649,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -3665,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -3703,11 +3702,14 @@
       <c r="S31" s="4">
         <v>0</v>
       </c>
+      <c r="T31" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="U31" s="6">
         <v>2</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
@@ -3715,10 +3717,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -3730,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -3739,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>5</v>
@@ -3757,7 +3759,7 @@
         <v>13</v>
       </c>
       <c r="P32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -3767,12 +3769,15 @@
       </c>
       <c r="S32" s="4">
         <v>0</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="U32" s="6">
         <v>2</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
@@ -3780,10 +3785,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -3795,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -3804,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>5</v>
@@ -3831,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="S33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="6">
         <v>2</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
@@ -3845,10 +3850,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -3860,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -3887,7 +3892,7 @@
         <v>13</v>
       </c>
       <c r="P34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
@@ -3896,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="6">
         <v>2</v>
@@ -3910,10 +3915,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -3958,19 +3963,16 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="4">
         <v>0</v>
-      </c>
-      <c r="T35" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="U35" s="6">
         <v>2</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
@@ -3978,10 +3980,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -4002,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>5</v>
@@ -4026,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="R36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="6">
         <v>2</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
@@ -4043,10 +4045,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -4088,19 +4090,19 @@
         <v>0</v>
       </c>
       <c r="Q37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="4">
         <v>0</v>
       </c>
       <c r="U37" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.4">
@@ -4108,10 +4110,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -4132,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>5</v>
@@ -4162,10 +4164,13 @@
         <v>0</v>
       </c>
       <c r="U38" s="6">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
@@ -4173,7 +4178,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>92</v>
@@ -4230,7 +4235,7 @@
         <v>3</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.4">
@@ -4238,10 +4243,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -4262,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>5</v>
@@ -4280,10 +4285,10 @@
         <v>13</v>
       </c>
       <c r="P40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="3">
         <v>0</v>
@@ -4294,8 +4299,11 @@
       <c r="U40" s="6">
         <v>2</v>
       </c>
+      <c r="V40" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="W40" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
@@ -4303,10 +4311,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -4327,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>5</v>
@@ -4345,10 +4353,10 @@
         <v>13</v>
       </c>
       <c r="P41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="3">
         <v>1</v>
@@ -4359,8 +4367,11 @@
       <c r="U41" s="6">
         <v>2</v>
       </c>
+      <c r="V41" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="W41" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
@@ -4368,10 +4379,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -4392,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>5</v>
@@ -4410,22 +4421,25 @@
         <v>13</v>
       </c>
       <c r="P42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="3">
         <v>1</v>
       </c>
       <c r="R42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="6">
         <v>2</v>
       </c>
+      <c r="V42" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="W42" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
@@ -4436,7 +4450,7 @@
         <v>126</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -4478,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -4490,7 +4504,7 @@
         <v>2</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
@@ -4498,10 +4512,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -4522,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>5</v>
@@ -4543,19 +4557,19 @@
         <v>1</v>
       </c>
       <c r="Q44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="6">
         <v>2</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
@@ -4563,10 +4577,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -4608,19 +4622,19 @@
         <v>1</v>
       </c>
       <c r="Q45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>1</v>
       </c>
       <c r="S45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="6">
         <v>2</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
@@ -4628,10 +4642,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -4670,25 +4684,22 @@
         <v>13</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="4">
         <v>0</v>
-      </c>
-      <c r="T46" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="U46" s="6">
         <v>2</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
@@ -4696,10 +4707,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -4720,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>5</v>
@@ -4738,22 +4749,22 @@
         <v>13</v>
       </c>
       <c r="P47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
       <c r="S47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="6">
         <v>2</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
@@ -4761,10 +4772,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -4803,13 +4814,13 @@
         <v>13</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="4">
         <v>0</v>
@@ -4818,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.4">
@@ -4826,10 +4837,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -4850,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>5</v>
@@ -4868,7 +4879,7 @@
         <v>13</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="3">
         <v>1</v>
@@ -4877,16 +4888,13 @@
         <v>0</v>
       </c>
       <c r="S49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="6">
         <v>2</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="W49" s="1" t="s">
-        <v>225</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.4">
@@ -4894,10 +4902,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -4936,7 +4944,7 @@
         <v>13</v>
       </c>
       <c r="P50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="3">
         <v>1</v>
@@ -4950,11 +4958,8 @@
       <c r="U50" s="6">
         <v>2</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="W50" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.4">
@@ -4962,10 +4967,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -4986,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>5</v>
@@ -5004,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="P51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="3">
         <v>1</v>
@@ -5018,11 +5023,8 @@
       <c r="U51" s="6">
         <v>2</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="W51" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.4">
@@ -5030,10 +5032,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -5072,7 +5074,7 @@
         <v>13</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="3">
         <v>1</v>
@@ -5081,16 +5083,13 @@
         <v>1</v>
       </c>
       <c r="S52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" s="6">
         <v>2</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="W52" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.4">
@@ -5098,10 +5097,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
@@ -5122,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>5</v>
@@ -5143,10 +5142,10 @@
         <v>1</v>
       </c>
       <c r="Q53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="4">
         <v>1</v>
@@ -5155,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.4">
@@ -5163,10 +5162,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -5208,19 +5207,19 @@
         <v>1</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="3">
         <v>1</v>
       </c>
       <c r="S54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="6">
         <v>2</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.4">
@@ -5228,10 +5227,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -5249,10 +5248,10 @@
         <v>0</v>
       </c>
       <c r="I55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>5</v>
@@ -5270,10 +5269,10 @@
         <v>13</v>
       </c>
       <c r="P55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="3">
         <v>0</v>
@@ -5282,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="U55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.4">
@@ -5293,10 +5292,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -5314,10 +5313,10 @@
         <v>0</v>
       </c>
       <c r="I56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>5</v>
@@ -5335,10 +5334,10 @@
         <v>13</v>
       </c>
       <c r="P56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="3">
         <v>0</v>
@@ -5347,10 +5346,13 @@
         <v>1</v>
       </c>
       <c r="U56" s="6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.4">
@@ -5358,10 +5360,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
@@ -5379,10 +5381,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>5</v>
@@ -5400,10 +5402,10 @@
         <v>13</v>
       </c>
       <c r="P57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>1</v>
@@ -5412,10 +5414,10 @@
         <v>0</v>
       </c>
       <c r="U57" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.4">
@@ -5423,7 +5425,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>33</v>
@@ -5444,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>5</v>
@@ -5465,10 +5467,10 @@
         <v>13</v>
       </c>
       <c r="P58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>1</v>
@@ -5477,10 +5479,10 @@
         <v>1</v>
       </c>
       <c r="U58" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.4">
@@ -5488,7 +5490,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>33</v>
@@ -5533,19 +5535,19 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="6">
         <v>1</v>
       </c>
-      <c r="W59" s="1" t="s">
-        <v>81</v>
+      <c r="W59" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.4">
@@ -5553,7 +5555,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>33</v>
@@ -5598,22 +5600,19 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" s="6">
         <v>1</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="W60" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.4">
@@ -5621,7 +5620,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>33</v>
@@ -5666,19 +5665,19 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="3">
         <v>1</v>
       </c>
       <c r="S61" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" s="6">
         <v>1</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.4">
@@ -5686,7 +5685,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>33</v>
@@ -5728,7 +5727,7 @@
         <v>13</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -5737,13 +5736,13 @@
         <v>1</v>
       </c>
       <c r="S62" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62" s="6">
         <v>1</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.4">
@@ -5751,10 +5750,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D63" s="3">
         <v>1</v>
@@ -5777,38 +5776,41 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>10</v>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="P63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="3">
         <v>0</v>
       </c>
       <c r="S63" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="6">
         <v>1</v>
       </c>
-      <c r="W63" s="2" t="s">
-        <v>51</v>
+      <c r="V63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.4">
@@ -5816,10 +5818,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -5842,29 +5844,29 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>10</v>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="P64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="4">
         <v>0</v>
@@ -5872,8 +5874,11 @@
       <c r="U64" s="6">
         <v>1</v>
       </c>
+      <c r="V64" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="W64" s="1" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.4">
@@ -5881,10 +5886,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
@@ -5907,38 +5909,38 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>13</v>
+      <c r="K65" s="4">
+        <v>1</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <v>0</v>
       </c>
       <c r="P65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="4">
-        <v>1</v>
-      </c>
-      <c r="U65" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="U65" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.4">
@@ -5946,10 +5948,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
@@ -5972,20 +5971,20 @@
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>13</v>
+      <c r="K66" s="4">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <v>1</v>
       </c>
       <c r="P66" s="3">
         <v>1</v>
@@ -5994,16 +5993,16 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="4">
         <v>0</v>
       </c>
-      <c r="U66" s="6">
-        <v>1</v>
+      <c r="U66" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.4">
@@ -6011,7 +6010,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -6035,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="3">
         <v>0</v>
@@ -6059,16 +6058,10 @@
         <v>0</v>
       </c>
       <c r="S67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" s="6">
-        <v>2</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W67" s="1" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.4">
@@ -6076,7 +6069,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
@@ -6103,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="3">
         <v>0</v>
@@ -6112,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="3">
         <v>1</v>
@@ -6126,11 +6119,14 @@
       <c r="S68" s="4">
         <v>0</v>
       </c>
-      <c r="U68" s="6" t="s">
-        <v>229</v>
+      <c r="U68" s="6">
+        <v>1</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.4">
@@ -6138,7 +6134,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
@@ -6165,13 +6161,13 @@
         <v>1</v>
       </c>
       <c r="L69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="3">
         <v>0</v>
       </c>
       <c r="N69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" s="4">
         <v>0</v>
@@ -6186,16 +6182,13 @@
         <v>0</v>
       </c>
       <c r="S69" s="4">
-        <v>1</v>
-      </c>
-      <c r="U69" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="V69" s="2" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="U69" s="6">
+        <v>1</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.4">
@@ -6203,7 +6196,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -6230,16 +6223,16 @@
         <v>1</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
       <c r="O70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>1</v>
@@ -6253,11 +6246,14 @@
       <c r="S70" s="4">
         <v>0</v>
       </c>
-      <c r="U70" s="6" t="s">
-        <v>229</v>
+      <c r="U70" s="6">
+        <v>3</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.4">
@@ -6265,7 +6261,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -6295,10 +6291,10 @@
         <v>1</v>
       </c>
       <c r="M71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" s="4">
         <v>0</v>
@@ -6315,8 +6311,11 @@
       <c r="S71" s="4">
         <v>0</v>
       </c>
-      <c r="U71" s="6">
-        <v>1</v>
+      <c r="U71" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.4">
@@ -6324,7 +6323,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
@@ -6348,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="K72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -6360,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" s="3">
         <v>1</v>
@@ -6372,16 +6371,16 @@
         <v>0</v>
       </c>
       <c r="S72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.4">
@@ -6389,7 +6388,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -6416,13 +6415,13 @@
         <v>1</v>
       </c>
       <c r="L73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" s="3">
         <v>0</v>
       </c>
       <c r="N73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="4">
         <v>0</v>
@@ -6437,13 +6436,16 @@
         <v>0</v>
       </c>
       <c r="S73" s="4">
-        <v>0</v>
-      </c>
-      <c r="U73" s="6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="U73" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.4">
@@ -6451,7 +6453,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
@@ -6474,41 +6479,41 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="4">
-        <v>1</v>
-      </c>
-      <c r="L74" s="3">
-        <v>1</v>
-      </c>
-      <c r="M74" s="3">
-        <v>1</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0</v>
-      </c>
-      <c r="O74" s="4">
-        <v>0</v>
+      <c r="K74" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="P74" s="3">
         <v>1</v>
       </c>
       <c r="Q74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="3">
         <v>0</v>
       </c>
-      <c r="S74" s="4">
-        <v>0</v>
+      <c r="S74" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="T74" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="U74" s="6">
         <v>3</v>
       </c>
-      <c r="V74" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="W74" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.4">
@@ -6516,7 +6521,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>190</v>
+        <v>61</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
@@ -6539,38 +6547,41 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="4">
-        <v>1</v>
-      </c>
-      <c r="L75" s="3">
-        <v>1</v>
-      </c>
-      <c r="M75" s="3">
-        <v>1</v>
-      </c>
-      <c r="N75" s="3">
-        <v>1</v>
-      </c>
-      <c r="O75" s="4">
-        <v>0</v>
+      <c r="K75" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="P75" s="3">
         <v>1</v>
       </c>
       <c r="Q75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="3">
-        <v>0</v>
-      </c>
-      <c r="S75" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="T75" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="U75" s="6" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.4">
@@ -6578,10 +6589,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -6602,43 +6613,43 @@
         <v>1</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="4">
         <v>0</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
+      <c r="L76" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S76" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="U76" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.4">
@@ -6646,10 +6657,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -6670,43 +6681,43 @@
         <v>1</v>
       </c>
       <c r="J77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="4">
-        <v>0</v>
-      </c>
-      <c r="L77" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P77" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>0</v>
-      </c>
-      <c r="R77" s="3">
-        <v>0</v>
-      </c>
-      <c r="S77" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S77" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="U77" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.4">
@@ -6782,7 +6793,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>109</v>
@@ -6806,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="J79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>64</v>
@@ -6835,14 +6846,14 @@
       <c r="S79" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U79" s="6" t="s">
-        <v>227</v>
+      <c r="U79" s="6">
+        <v>2</v>
       </c>
       <c r="V79" s="2" t="s">
         <v>111</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.4">
@@ -6850,7 +6861,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>109</v>
@@ -6874,10 +6885,10 @@
         <v>0</v>
       </c>
       <c r="J80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>64</v>
@@ -6903,14 +6914,14 @@
       <c r="S80" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U80" s="6">
-        <v>2</v>
+      <c r="U80" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>111</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.4">
@@ -6918,7 +6929,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>109</v>
@@ -6972,13 +6983,13 @@
         <v>39</v>
       </c>
       <c r="U81" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="V81" s="2" t="s">
         <v>111</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.4">
@@ -6986,10 +6997,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -6998,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="4">
         <v>1</v>
@@ -7006,47 +7017,44 @@
       <c r="H82" s="3">
         <v>0</v>
       </c>
-      <c r="I82" s="3">
-        <v>1</v>
-      </c>
-      <c r="J82" s="3">
-        <v>1</v>
-      </c>
-      <c r="K82" s="4">
-        <v>0</v>
+      <c r="I82" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="S82" s="4" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="U82" s="6">
-        <v>2</v>
-      </c>
-      <c r="V82" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.4">
@@ -7054,10 +7062,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
@@ -7066,55 +7074,52 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="4">
         <v>1</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1</v>
-      </c>
-      <c r="K83" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="S83" s="4" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="U83" s="6">
-        <v>2</v>
-      </c>
-      <c r="V83" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.4">
@@ -7122,7 +7127,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>76</v>
@@ -7131,58 +7136,55 @@
         <v>1</v>
       </c>
       <c r="E84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
       </c>
       <c r="G84" s="4">
-        <v>1</v>
-      </c>
-      <c r="H84" s="3">
-        <v>0</v>
-      </c>
-      <c r="I84" s="3">
-        <v>1</v>
-      </c>
-      <c r="J84" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P84" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>1</v>
-      </c>
-      <c r="R84" s="3">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="S84" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T84" s="7" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="U84" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.4">
@@ -7190,7 +7192,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>76</v>
@@ -7199,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -7207,50 +7209,47 @@
       <c r="G85" s="4">
         <v>1</v>
       </c>
-      <c r="H85" s="3">
-        <v>0</v>
-      </c>
-      <c r="I85" s="3">
-        <v>1</v>
-      </c>
-      <c r="J85" s="3">
-        <v>0</v>
+      <c r="H85" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P85" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>1</v>
-      </c>
-      <c r="R85" s="3">
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="R85" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="S85" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T85" s="7" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="U85" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.4">
@@ -7258,16 +7257,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D86" s="3">
         <v>1</v>
       </c>
       <c r="E86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="3">
         <v>1</v>
@@ -7276,13 +7275,13 @@
         <v>1</v>
       </c>
       <c r="H86" s="3">
-        <v>0</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>5</v>
@@ -7299,23 +7298,23 @@
       <c r="O86" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P86" s="3" t="s">
-        <v>65</v>
+      <c r="P86" s="3">
+        <v>0</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="U86" s="6">
         <v>1</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.4">
@@ -7323,16 +7322,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="D87" s="3">
         <v>1</v>
       </c>
       <c r="E87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="3">
         <v>1</v>
@@ -7343,11 +7342,11 @@
       <c r="H87" s="3">
         <v>1</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>64</v>
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
+        <v>1</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>5</v>
@@ -7364,23 +7363,23 @@
       <c r="O87" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P87" s="3" t="s">
-        <v>65</v>
+      <c r="P87" s="3">
+        <v>0</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="S87" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="U87" s="6">
         <v>1</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.4">
@@ -7388,10 +7387,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
@@ -7400,52 +7399,52 @@
         <v>1</v>
       </c>
       <c r="F88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="4">
-        <v>0</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P88" s="3" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S88" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U88" s="6">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="U88" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.4">
@@ -7453,10 +7452,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
@@ -7465,52 +7464,52 @@
         <v>1</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="4">
         <v>1</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>76</v>
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="R89" s="3" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S89" s="4" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U89" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.4">
@@ -7518,10 +7517,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
@@ -7536,31 +7535,31 @@
         <v>1</v>
       </c>
       <c r="H90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="3">
         <v>0</v>
       </c>
-      <c r="J90" s="3">
-        <v>0</v>
+      <c r="J90" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P90" s="3">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="Q90" s="3" t="s">
         <v>37</v>
@@ -7571,11 +7570,14 @@
       <c r="S90" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U90" s="6">
-        <v>1</v>
+      <c r="U90" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.4">
@@ -7583,10 +7585,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
@@ -7601,31 +7603,31 @@
         <v>1</v>
       </c>
       <c r="H91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>37</v>
@@ -7636,286 +7638,23 @@
       <c r="S91" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U91" s="6">
-        <v>1</v>
+      <c r="U91" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A92" s="9">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D92" s="3">
-        <v>1</v>
-      </c>
-      <c r="E92" s="3">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1</v>
-      </c>
-      <c r="H92" s="3">
-        <v>1</v>
-      </c>
-      <c r="I92" s="3">
-        <v>1</v>
-      </c>
-      <c r="J92" s="3">
-        <v>0</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O92" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P92" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R92" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S92" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U92" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="W92" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A93" s="9">
-        <v>92</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D93" s="3">
-        <v>1</v>
-      </c>
-      <c r="E93" s="3">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-      <c r="G93" s="4">
-        <v>1</v>
-      </c>
-      <c r="H93" s="3">
-        <v>1</v>
-      </c>
-      <c r="I93" s="3">
-        <v>1</v>
-      </c>
-      <c r="J93" s="3">
-        <v>1</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P93" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q93" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R93" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S93" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U93" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="W93" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A94" s="9">
-        <v>93</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" s="3">
-        <v>1</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1</v>
-      </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-      <c r="G94" s="4">
-        <v>1</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S94" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U94" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V94" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W94" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A95" s="9">
-        <v>94</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" s="3">
-        <v>1</v>
-      </c>
-      <c r="E95" s="3">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="4">
-        <v>1</v>
-      </c>
-      <c r="H95" s="3">
-        <v>0</v>
-      </c>
-      <c r="I95" s="3">
-        <v>1</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O95" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P95" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q95" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R95" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S95" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U95" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V95" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W95" s="1" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W95" xr:uid="{B9720957-DD65-4FE2-BDF1-1D628EE2E085}">
-    <sortState ref="A2:W95">
-      <sortCondition ref="A1:A95"/>
+  <autoFilter ref="A1:W91" xr:uid="{B9720957-DD65-4FE2-BDF1-1D628EE2E085}">
+    <sortState ref="A2:W91">
+      <sortCondition ref="A68"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:W95">
+  <sortState ref="A2:W91">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7985,7 +7724,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>71</v>
